--- a/data/Obese_Assays.xlsx
+++ b/data/Obese_Assays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borajin/Documents/BoraJin2018~/Research/DoseResponse/BMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDB50A8-82E9-0E4D-9520-271CA1810F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738E4888-BD5B-1140-A0F1-C1DD64256115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="700" windowWidth="27640" windowHeight="15480" xr2:uid="{FA2592C9-A5B5-9744-9CB3-1703D97CEDAC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="651">
   <si>
     <t>assay_name</t>
   </si>
@@ -1546,6 +1546,450 @@
   </si>
   <si>
     <t>NVS_ENZ_hPDE8A1_Activator</t>
+  </si>
+  <si>
+    <t>intended_target_official_symbol</t>
+  </si>
+  <si>
+    <t>ESR1</t>
+  </si>
+  <si>
+    <t>AHR</t>
+  </si>
+  <si>
+    <t>CEBPB</t>
+  </si>
+  <si>
+    <t>FOXA2</t>
+  </si>
+  <si>
+    <t>NR3C1</t>
+  </si>
+  <si>
+    <t>HIF1A</t>
+  </si>
+  <si>
+    <t>NR1H4</t>
+  </si>
+  <si>
+    <t>MYC</t>
+  </si>
+  <si>
+    <t>NFE2L2</t>
+  </si>
+  <si>
+    <t>PAX6</t>
+  </si>
+  <si>
+    <t>NR1I3</t>
+  </si>
+  <si>
+    <t>NR1I2</t>
+  </si>
+  <si>
+    <t>SREBF1</t>
+  </si>
+  <si>
+    <t>STAT3</t>
+  </si>
+  <si>
+    <t>TGFB1</t>
+  </si>
+  <si>
+    <t>VDR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ESRRA</t>
+  </si>
+  <si>
+    <t>NR4A2</t>
+  </si>
+  <si>
+    <t>PPARA</t>
+  </si>
+  <si>
+    <t>PPARD</t>
+  </si>
+  <si>
+    <t>PPARG</t>
+  </si>
+  <si>
+    <t>RORC</t>
+  </si>
+  <si>
+    <t>THRA</t>
+  </si>
+  <si>
+    <t>ICAM1</t>
+  </si>
+  <si>
+    <t>CXCL8</t>
+  </si>
+  <si>
+    <t>CCL2</t>
+  </si>
+  <si>
+    <t>CXCL10</t>
+  </si>
+  <si>
+    <t>SERPINE1</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>LDLR</t>
+  </si>
+  <si>
+    <t>MMP9</t>
+  </si>
+  <si>
+    <t>TIMP2</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>CYP19A1</t>
+  </si>
+  <si>
+    <t>CYP1B1</t>
+  </si>
+  <si>
+    <t>CYP2E1</t>
+  </si>
+  <si>
+    <t>Cyp2e1</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
+    <t>AKT2</t>
+  </si>
+  <si>
+    <t>PRKAA1</t>
+  </si>
+  <si>
+    <t>CASP1</t>
+  </si>
+  <si>
+    <t>BCHE</t>
+  </si>
+  <si>
+    <t>INSR</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>MAPK9</t>
+  </si>
+  <si>
+    <t>MAPK3</t>
+  </si>
+  <si>
+    <t>NEK2</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>PDE4A</t>
+  </si>
+  <si>
+    <t>PDE5A</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>PTPN1</t>
+  </si>
+  <si>
+    <t>PTPN11</t>
+  </si>
+  <si>
+    <t>PTPN13</t>
+  </si>
+  <si>
+    <t>PTPN2</t>
+  </si>
+  <si>
+    <t>SIRT1</t>
+  </si>
+  <si>
+    <t>SIRT2</t>
+  </si>
+  <si>
+    <t>SIRT3</t>
+  </si>
+  <si>
+    <t>FLT1</t>
+  </si>
+  <si>
+    <t>Nos1</t>
+  </si>
+  <si>
+    <t>Maoa</t>
+  </si>
+  <si>
+    <t>Maob</t>
+  </si>
+  <si>
+    <t>ADORA1</t>
+  </si>
+  <si>
+    <t>AGTR2</t>
+  </si>
+  <si>
+    <t>HRH1</t>
+  </si>
+  <si>
+    <t>NPY</t>
+  </si>
+  <si>
+    <t>HTR2A</t>
+  </si>
+  <si>
+    <t>HTR7</t>
+  </si>
+  <si>
+    <t>ADORA2A</t>
+  </si>
+  <si>
+    <t>ADRA2A</t>
+  </si>
+  <si>
+    <t>ADRA2C</t>
+  </si>
+  <si>
+    <t>ADRB1</t>
+  </si>
+  <si>
+    <t>ADRB2</t>
+  </si>
+  <si>
+    <t>ADRB3</t>
+  </si>
+  <si>
+    <t>AGTR1</t>
+  </si>
+  <si>
+    <t>DRD2</t>
+  </si>
+  <si>
+    <t>CHRM1</t>
+  </si>
+  <si>
+    <t>CHRM2</t>
+  </si>
+  <si>
+    <t>CHRM3</t>
+  </si>
+  <si>
+    <t>CHRM4</t>
+  </si>
+  <si>
+    <t>CHRM5</t>
+  </si>
+  <si>
+    <t>NPY1R</t>
+  </si>
+  <si>
+    <t>NPY2R</t>
+  </si>
+  <si>
+    <t>OPRD1</t>
+  </si>
+  <si>
+    <t>OPRM1</t>
+  </si>
+  <si>
+    <t>AVPR1A</t>
+  </si>
+  <si>
+    <t>Cckbr</t>
+  </si>
+  <si>
+    <t>HTR2C</t>
+  </si>
+  <si>
+    <t>Htr1a</t>
+  </si>
+  <si>
+    <t>Adra1a</t>
+  </si>
+  <si>
+    <t>Adra1b</t>
+  </si>
+  <si>
+    <t>Adra2a</t>
+  </si>
+  <si>
+    <t>Adrb1</t>
+  </si>
+  <si>
+    <t>Crhr1</t>
+  </si>
+  <si>
+    <t>Hrh3</t>
+  </si>
+  <si>
+    <t>Adra2b</t>
+  </si>
+  <si>
+    <t>Oprm1</t>
+  </si>
+  <si>
+    <t>Oxtr</t>
+  </si>
+  <si>
+    <t>Sstr1</t>
+  </si>
+  <si>
+    <t>Avpr1a</t>
+  </si>
+  <si>
+    <t>Cacna1b</t>
+  </si>
+  <si>
+    <t>Grik1</t>
+  </si>
+  <si>
+    <t>Scn1a</t>
+  </si>
+  <si>
+    <t>GABRA1</t>
+  </si>
+  <si>
+    <t>GABRA5</t>
+  </si>
+  <si>
+    <t>HTR3A</t>
+  </si>
+  <si>
+    <t>CHRNA2</t>
+  </si>
+  <si>
+    <t>Gabra1</t>
+  </si>
+  <si>
+    <t>Gabra6</t>
+  </si>
+  <si>
+    <t>Grin1</t>
+  </si>
+  <si>
+    <t>Chrna7</t>
+  </si>
+  <si>
+    <t>TSPO</t>
+  </si>
+  <si>
+    <t>Tspo</t>
+  </si>
+  <si>
+    <t>Esr1</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>FKBP1A</t>
+  </si>
+  <si>
+    <t>SLC6A3</t>
+  </si>
+  <si>
+    <t>SLC6A2</t>
+  </si>
+  <si>
+    <t>SLC6A4</t>
+  </si>
+  <si>
+    <t>Slc6a2</t>
+  </si>
+  <si>
+    <t>Slc6a4</t>
+  </si>
+  <si>
+    <t>Slc18a2</t>
+  </si>
+  <si>
+    <t>ESR2</t>
+  </si>
+  <si>
+    <t>NR4A1</t>
+  </si>
+  <si>
+    <t>NR4A3</t>
+  </si>
+  <si>
+    <t>NR2C2</t>
+  </si>
+  <si>
+    <t>RXRG</t>
+  </si>
+  <si>
+    <t>NR5A1</t>
+  </si>
+  <si>
+    <t>NR0B2</t>
+  </si>
+  <si>
+    <t>PPP3CA</t>
+  </si>
+  <si>
+    <t>ADRA1A</t>
+  </si>
+  <si>
+    <t>GCGR</t>
+  </si>
+  <si>
+    <t>GNAS</t>
+  </si>
+  <si>
+    <t>MC3R</t>
+  </si>
+  <si>
+    <t>MC4R</t>
+  </si>
+  <si>
+    <t>PDE3A</t>
+  </si>
+  <si>
+    <t>PDE4B</t>
+  </si>
+  <si>
+    <t>PDE4C</t>
+  </si>
+  <si>
+    <t>PDE4D</t>
+  </si>
+  <si>
+    <t>PDE7A</t>
+  </si>
+  <si>
+    <t>PDE8A</t>
+  </si>
+  <si>
+    <t>Matches to stricter obesity?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +2033,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,7 +2361,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1922,6 +2372,8 @@
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1943,6 +2395,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>648</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1964,6 +2422,12 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1984,6 +2448,12 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2004,6 +2474,12 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2024,6 +2500,12 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
+      <c r="G5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2044,6 +2526,12 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
+      <c r="G6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2064,6 +2552,12 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2084,6 +2578,12 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
+      <c r="G8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2104,6 +2604,12 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
+      <c r="G9" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2124,6 +2630,12 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
+      <c r="G10" t="s">
+        <v>508</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2144,6 +2656,12 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="G11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2164,6 +2682,12 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="G12" t="s">
+        <v>509</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2184,6 +2708,12 @@
       <c r="F13" t="s">
         <v>32</v>
       </c>
+      <c r="G13" t="s">
+        <v>509</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2204,6 +2734,12 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
+      <c r="G14" t="s">
+        <v>510</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2224,6 +2760,12 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
+      <c r="G15" t="s">
+        <v>510</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2244,8 +2786,14 @@
       <c r="F16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>511</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2264,8 +2812,14 @@
       <c r="F17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>511</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2284,8 +2838,14 @@
       <c r="F18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2304,8 +2864,14 @@
       <c r="F19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2324,8 +2890,14 @@
       <c r="F20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>513</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2344,8 +2916,14 @@
       <c r="F21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>513</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2364,8 +2942,14 @@
       <c r="F22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>514</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2384,8 +2968,14 @@
       <c r="F23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>514</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2404,8 +2994,14 @@
       <c r="F24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2424,8 +3020,14 @@
       <c r="F25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2444,8 +3046,14 @@
       <c r="F26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>516</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2464,8 +3072,14 @@
       <c r="F27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>516</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2484,8 +3098,14 @@
       <c r="F28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>517</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2504,8 +3124,14 @@
       <c r="F29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>517</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2524,8 +3150,14 @@
       <c r="F30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>518</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2544,8 +3176,14 @@
       <c r="F31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>518</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2564,8 +3202,14 @@
       <c r="F32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>519</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2584,8 +3228,14 @@
       <c r="F33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>519</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2604,8 +3254,14 @@
       <c r="F34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>520</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2624,8 +3280,14 @@
       <c r="F35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>514</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2644,8 +3306,14 @@
       <c r="F36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2664,8 +3332,14 @@
       <c r="F37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>504</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2684,8 +3358,14 @@
       <c r="F38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>521</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2704,8 +3384,14 @@
       <c r="F39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>521</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2724,8 +3410,14 @@
       <c r="F40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>510</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2744,8 +3436,14 @@
       <c r="F41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -2764,8 +3462,14 @@
       <c r="F42" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>508</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2784,8 +3488,14 @@
       <c r="F43" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>508</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2804,8 +3514,14 @@
       <c r="F44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>522</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2824,8 +3540,14 @@
       <c r="F45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>522</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2844,8 +3566,14 @@
       <c r="F46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>523</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2864,8 +3592,14 @@
       <c r="F47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>523</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2884,8 +3618,14 @@
       <c r="F48" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>524</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2904,8 +3644,14 @@
       <c r="F49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>524</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2924,8 +3670,14 @@
       <c r="F50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>525</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -2944,8 +3696,14 @@
       <c r="F51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>525</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2964,8 +3722,14 @@
       <c r="F52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>515</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2984,8 +3748,14 @@
       <c r="F53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>515</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3004,8 +3774,14 @@
       <c r="F54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>526</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3024,8 +3800,14 @@
       <c r="F55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>526</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3044,8 +3826,14 @@
       <c r="F56" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>527</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3064,8 +3852,14 @@
       <c r="F57" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>519</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3084,8 +3878,14 @@
       <c r="F58" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>519</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -3104,8 +3904,14 @@
       <c r="F59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>528</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3124,8 +3930,14 @@
       <c r="F60" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>528</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3144,8 +3956,14 @@
       <c r="F61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>529</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -3164,8 +3982,14 @@
       <c r="F62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>529</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -3184,8 +4008,14 @@
       <c r="F63" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>530</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -3204,8 +4034,14 @@
       <c r="F64" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>530</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -3224,8 +4060,14 @@
       <c r="F65" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>530</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -3244,8 +4086,14 @@
       <c r="F66" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>530</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -3264,8 +4112,14 @@
       <c r="F67" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>531</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -3284,8 +4138,14 @@
       <c r="F68" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>531</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -3304,8 +4164,14 @@
       <c r="F69" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>532</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -3324,8 +4190,14 @@
       <c r="F70" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>532</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -3344,8 +4216,14 @@
       <c r="F71" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>518</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -3364,8 +4242,14 @@
       <c r="F72" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>518</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -3384,8 +4268,14 @@
       <c r="F73" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>533</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -3404,8 +4294,14 @@
       <c r="F74" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>533</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3424,8 +4320,14 @@
       <c r="F75" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>529</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -3444,8 +4346,14 @@
       <c r="F76" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>529</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3464,8 +4372,14 @@
       <c r="F77" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>534</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -3484,8 +4398,14 @@
       <c r="F78" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>534</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -3504,8 +4424,14 @@
       <c r="F79" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>530</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -3524,8 +4450,14 @@
       <c r="F80" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>530</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -3544,8 +4476,14 @@
       <c r="F81" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>529</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -3564,8 +4502,14 @@
       <c r="F82" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>529</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -3584,8 +4528,14 @@
       <c r="F83" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>531</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -3604,8 +4554,14 @@
       <c r="F84" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>531</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -3624,8 +4580,14 @@
       <c r="F85" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>532</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -3644,8 +4606,14 @@
       <c r="F86" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>532</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -3664,8 +4632,14 @@
       <c r="F87" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>528</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3684,8 +4658,14 @@
       <c r="F88" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>528</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -3704,8 +4684,14 @@
       <c r="F89" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>531</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -3724,8 +4710,14 @@
       <c r="F90" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>531</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -3744,8 +4736,14 @@
       <c r="F91" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>530</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -3764,8 +4762,14 @@
       <c r="F92" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>530</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -3784,8 +4788,14 @@
       <c r="F93" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>535</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -3804,8 +4814,14 @@
       <c r="F94" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>535</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -3824,8 +4840,14 @@
       <c r="F95" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>518</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -3844,8 +4866,14 @@
       <c r="F96" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>518</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -3864,8 +4892,14 @@
       <c r="F97" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>536</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -3884,8 +4918,14 @@
       <c r="F98" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>536</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -3904,8 +4944,14 @@
       <c r="F99" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>529</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -3924,8 +4970,14 @@
       <c r="F100" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>529</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -3944,8 +4996,14 @@
       <c r="F101" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -3964,8 +5022,14 @@
       <c r="F102" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>530</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -3984,8 +5048,14 @@
       <c r="F103" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>537</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -4004,8 +5074,14 @@
       <c r="F104" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>537</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -4024,8 +5100,14 @@
       <c r="F105" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>538</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -4044,8 +5126,14 @@
       <c r="F106" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>538</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -4064,8 +5152,14 @@
       <c r="F107" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>529</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>182</v>
       </c>
@@ -4084,8 +5178,14 @@
       <c r="F108" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>529</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -4104,8 +5204,14 @@
       <c r="F109" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>530</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -4124,8 +5230,14 @@
       <c r="F110" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>530</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -4144,8 +5256,14 @@
       <c r="F111" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>539</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -4164,8 +5282,14 @@
       <c r="F112" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>539</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -4184,8 +5308,14 @@
       <c r="F113" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>540</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -4204,8 +5334,14 @@
       <c r="F114" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>540</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -4224,8 +5360,14 @@
       <c r="F115" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>541</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -4244,8 +5386,14 @@
       <c r="F116" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>541</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>198</v>
       </c>
@@ -4264,8 +5412,14 @@
       <c r="F117" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>542</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -4284,8 +5438,14 @@
       <c r="F118" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>542</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -4304,8 +5464,14 @@
       <c r="F119" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>543</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>201</v>
       </c>
@@ -4324,8 +5490,14 @@
       <c r="F120" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>543</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -4344,8 +5516,14 @@
       <c r="F121" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>544</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -4364,8 +5542,14 @@
       <c r="F122" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>544</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -4384,8 +5568,14 @@
       <c r="F123" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>545</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -4404,8 +5594,14 @@
       <c r="F124" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>545</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -4424,8 +5620,14 @@
       <c r="F125" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>546</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>207</v>
       </c>
@@ -4444,8 +5646,14 @@
       <c r="F126" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>546</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -4464,8 +5672,14 @@
       <c r="F127" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>547</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -4484,8 +5698,14 @@
       <c r="F128" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>547</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -4504,8 +5724,14 @@
       <c r="F129" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>548</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -4524,8 +5750,14 @@
       <c r="F130" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>548</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -4544,8 +5776,14 @@
       <c r="F131" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>549</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -4564,8 +5802,14 @@
       <c r="F132" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>549</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -4584,8 +5828,14 @@
       <c r="F133" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>550</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -4604,8 +5854,14 @@
       <c r="F134" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>550</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -4624,8 +5880,14 @@
       <c r="F135" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>551</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -4644,8 +5906,14 @@
       <c r="F136" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>551</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -4664,8 +5932,14 @@
       <c r="F137" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>552</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -4684,8 +5958,14 @@
       <c r="F138" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>552</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -4704,8 +5984,14 @@
       <c r="F139" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>535</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -4724,8 +6010,14 @@
       <c r="F140" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>535</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -4744,8 +6036,14 @@
       <c r="F141" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>553</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -4764,8 +6062,14 @@
       <c r="F142" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>553</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>225</v>
       </c>
@@ -4784,8 +6088,14 @@
       <c r="F143" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>554</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -4804,8 +6114,14 @@
       <c r="F144" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>554</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -4824,8 +6140,14 @@
       <c r="F145" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>555</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -4844,8 +6166,14 @@
       <c r="F146" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>555</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>229</v>
       </c>
@@ -4864,8 +6192,14 @@
       <c r="F147" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>556</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -4884,8 +6218,14 @@
       <c r="F148" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>556</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>231</v>
       </c>
@@ -4904,8 +6244,14 @@
       <c r="F149" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>557</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -4924,8 +6270,14 @@
       <c r="F150" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>557</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -4944,8 +6296,14 @@
       <c r="F151" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>558</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -4964,8 +6322,14 @@
       <c r="F152" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>558</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -4984,8 +6348,14 @@
       <c r="F153" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>559</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -5004,8 +6374,14 @@
       <c r="F154" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>559</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>237</v>
       </c>
@@ -5024,8 +6400,14 @@
       <c r="F155" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>560</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -5044,8 +6426,14 @@
       <c r="F156" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>560</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -5064,8 +6452,14 @@
       <c r="F157" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>561</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -5084,8 +6478,14 @@
       <c r="F158" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>561</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>241</v>
       </c>
@@ -5104,8 +6504,14 @@
       <c r="F159" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>562</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -5124,8 +6530,14 @@
       <c r="F160" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>562</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>243</v>
       </c>
@@ -5144,8 +6556,14 @@
       <c r="F161" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
+        <v>563</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -5164,8 +6582,14 @@
       <c r="F162" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>563</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -5184,8 +6608,14 @@
       <c r="F163" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>564</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -5204,8 +6634,14 @@
       <c r="F164" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>564</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>247</v>
       </c>
@@ -5224,8 +6660,14 @@
       <c r="F165" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>565</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -5244,8 +6686,14 @@
       <c r="F166" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
+        <v>565</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>249</v>
       </c>
@@ -5264,8 +6712,14 @@
       <c r="F167" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
+        <v>566</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -5284,8 +6738,14 @@
       <c r="F168" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168" t="s">
+        <v>566</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -5304,8 +6764,14 @@
       <c r="F169" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169" t="s">
+        <v>567</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -5324,8 +6790,14 @@
       <c r="F170" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
+        <v>567</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>254</v>
       </c>
@@ -5344,8 +6816,14 @@
       <c r="F171" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171" t="s">
+        <v>567</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>254</v>
       </c>
@@ -5364,8 +6842,14 @@
       <c r="F172" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172" t="s">
+        <v>567</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -5384,8 +6868,14 @@
       <c r="F173" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
+        <v>568</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -5404,8 +6894,14 @@
       <c r="F174" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174" t="s">
+        <v>568</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>258</v>
       </c>
@@ -5424,8 +6920,14 @@
       <c r="F175" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
+        <v>568</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>258</v>
       </c>
@@ -5444,8 +6946,14 @@
       <c r="F176" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>568</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>260</v>
       </c>
@@ -5464,8 +6972,14 @@
       <c r="F177" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177" t="s">
+        <v>569</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>262</v>
       </c>
@@ -5484,8 +6998,14 @@
       <c r="F178" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178" t="s">
+        <v>570</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>263</v>
       </c>
@@ -5504,8 +7024,14 @@
       <c r="F179" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
+        <v>571</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>264</v>
       </c>
@@ -5524,8 +7050,14 @@
       <c r="F180" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180" t="s">
+        <v>572</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>265</v>
       </c>
@@ -5544,8 +7076,14 @@
       <c r="F181" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>573</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -5564,8 +7102,14 @@
       <c r="F182" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182" t="s">
+        <v>574</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -5584,8 +7128,14 @@
       <c r="F183" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183" t="s">
+        <v>569</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -5604,8 +7154,14 @@
       <c r="F184" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184" t="s">
+        <v>575</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>269</v>
       </c>
@@ -5624,8 +7180,14 @@
       <c r="F185" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185" t="s">
+        <v>576</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>270</v>
       </c>
@@ -5644,8 +7206,14 @@
       <c r="F186" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186" t="s">
+        <v>577</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>271</v>
       </c>
@@ -5664,8 +7232,14 @@
       <c r="F187" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187" t="s">
+        <v>578</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -5684,8 +7258,14 @@
       <c r="F188" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188" t="s">
+        <v>579</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>273</v>
       </c>
@@ -5704,8 +7284,14 @@
       <c r="F189" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189" t="s">
+        <v>580</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>274</v>
       </c>
@@ -5724,8 +7310,14 @@
       <c r="F190" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190" t="s">
+        <v>581</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>275</v>
       </c>
@@ -5744,8 +7336,14 @@
       <c r="F191" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191" t="s">
+        <v>582</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>276</v>
       </c>
@@ -5764,8 +7362,14 @@
       <c r="F192" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192" t="s">
+        <v>571</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>277</v>
       </c>
@@ -5784,8 +7388,14 @@
       <c r="F193" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193" t="s">
+        <v>583</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>278</v>
       </c>
@@ -5804,8 +7414,14 @@
       <c r="F194" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194" t="s">
+        <v>584</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>279</v>
       </c>
@@ -5824,8 +7440,14 @@
       <c r="F195" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195" t="s">
+        <v>585</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>280</v>
       </c>
@@ -5844,8 +7466,14 @@
       <c r="F196" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196" t="s">
+        <v>586</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>281</v>
       </c>
@@ -5864,8 +7492,14 @@
       <c r="F197" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197" t="s">
+        <v>587</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>282</v>
       </c>
@@ -5884,8 +7518,14 @@
       <c r="F198" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198" t="s">
+        <v>588</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>283</v>
       </c>
@@ -5904,8 +7544,14 @@
       <c r="F199" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" t="s">
+        <v>589</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>284</v>
       </c>
@@ -5924,8 +7570,14 @@
       <c r="F200" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200" t="s">
+        <v>590</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>285</v>
       </c>
@@ -5944,8 +7596,14 @@
       <c r="F201" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201" t="s">
+        <v>591</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>286</v>
       </c>
@@ -5964,8 +7622,14 @@
       <c r="F202" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202" t="s">
+        <v>592</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>287</v>
       </c>
@@ -5984,8 +7648,14 @@
       <c r="F203" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203" t="s">
+        <v>593</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>289</v>
       </c>
@@ -6004,8 +7674,14 @@
       <c r="F204" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204" t="s">
+        <v>594</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -6024,8 +7700,14 @@
       <c r="F205" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205" t="s">
+        <v>595</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>292</v>
       </c>
@@ -6044,8 +7726,14 @@
       <c r="F206" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206" t="s">
+        <v>595</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>293</v>
       </c>
@@ -6064,8 +7752,14 @@
       <c r="F207" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207" t="s">
+        <v>596</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>294</v>
       </c>
@@ -6084,8 +7778,14 @@
       <c r="F208" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208" t="s">
+        <v>596</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>295</v>
       </c>
@@ -6104,8 +7804,14 @@
       <c r="F209" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>597</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>296</v>
       </c>
@@ -6124,8 +7830,14 @@
       <c r="F210" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>598</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>297</v>
       </c>
@@ -6144,8 +7856,14 @@
       <c r="F211" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211" t="s">
+        <v>599</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>298</v>
       </c>
@@ -6164,8 +7882,14 @@
       <c r="F212" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>600</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -6184,8 +7908,14 @@
       <c r="F213" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>601</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -6204,8 +7934,14 @@
       <c r="F214" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
+        <v>602</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>301</v>
       </c>
@@ -6224,8 +7960,14 @@
       <c r="F215" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
+        <v>603</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>302</v>
       </c>
@@ -6244,8 +7986,14 @@
       <c r="F216" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>603</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>303</v>
       </c>
@@ -6264,8 +8012,14 @@
       <c r="F217" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>604</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>305</v>
       </c>
@@ -6284,8 +8038,14 @@
       <c r="F218" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>605</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>306</v>
       </c>
@@ -6304,8 +8064,14 @@
       <c r="F219" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>606</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>307</v>
       </c>
@@ -6324,8 +8090,14 @@
       <c r="F220" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>607</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>308</v>
       </c>
@@ -6344,8 +8116,14 @@
       <c r="F221" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>608</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>309</v>
       </c>
@@ -6364,8 +8142,14 @@
       <c r="F222" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222" t="s">
+        <v>609</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>310</v>
       </c>
@@ -6384,8 +8168,14 @@
       <c r="F223" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>610</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>311</v>
       </c>
@@ -6404,8 +8194,14 @@
       <c r="F224" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
+        <v>610</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>312</v>
       </c>
@@ -6424,8 +8220,14 @@
       <c r="F225" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225" t="s">
+        <v>611</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>313</v>
       </c>
@@ -6444,8 +8246,14 @@
       <c r="F226" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>612</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>314</v>
       </c>
@@ -6464,8 +8272,14 @@
       <c r="F227" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227" t="s">
+        <v>613</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>315</v>
       </c>
@@ -6484,8 +8298,14 @@
       <c r="F228" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228" t="s">
+        <v>614</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>316</v>
       </c>
@@ -6504,8 +8324,14 @@
       <c r="F229" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
+        <v>615</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>317</v>
       </c>
@@ -6524,8 +8350,14 @@
       <c r="F230" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230" t="s">
+        <v>616</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>318</v>
       </c>
@@ -6544,8 +8376,14 @@
       <c r="F231" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231" t="s">
+        <v>616</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>319</v>
       </c>
@@ -6564,8 +8402,14 @@
       <c r="F232" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232" t="s">
+        <v>617</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -6584,8 +8428,14 @@
       <c r="F233" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>618</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>322</v>
       </c>
@@ -6604,8 +8454,14 @@
       <c r="F234" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234" t="s">
+        <v>619</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>324</v>
       </c>
@@ -6624,8 +8480,14 @@
       <c r="F235" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
+        <v>520</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>325</v>
       </c>
@@ -6644,8 +8506,14 @@
       <c r="F236" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236" t="s">
+        <v>514</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>326</v>
       </c>
@@ -6664,8 +8532,14 @@
       <c r="F237" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>514</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>327</v>
       </c>
@@ -6684,8 +8558,14 @@
       <c r="F238" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>504</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>328</v>
       </c>
@@ -6704,8 +8584,14 @@
       <c r="F239" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
+        <v>510</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>329</v>
       </c>
@@ -6724,8 +8610,14 @@
       <c r="F240" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240" t="s">
+        <v>510</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>330</v>
       </c>
@@ -6744,8 +8636,14 @@
       <c r="F241" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241" t="s">
+        <v>508</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -6764,8 +8662,14 @@
       <c r="F242" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242" t="s">
+        <v>523</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>332</v>
       </c>
@@ -6784,8 +8688,14 @@
       <c r="F243" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
+        <v>525</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>333</v>
       </c>
@@ -6804,8 +8714,14 @@
       <c r="F244" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>515</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>334</v>
       </c>
@@ -6824,8 +8740,14 @@
       <c r="F245" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>527</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>335</v>
       </c>
@@ -6844,8 +8766,14 @@
       <c r="F246" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246" t="s">
+        <v>620</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>336</v>
       </c>
@@ -6864,8 +8792,14 @@
       <c r="F247" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>621</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>338</v>
       </c>
@@ -6884,8 +8818,14 @@
       <c r="F248" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248" t="s">
+        <v>622</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>339</v>
       </c>
@@ -6904,8 +8844,14 @@
       <c r="F249" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249" t="s">
+        <v>623</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>340</v>
       </c>
@@ -6924,8 +8870,14 @@
       <c r="F250" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250" t="s">
+        <v>624</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>341</v>
       </c>
@@ -6944,8 +8896,14 @@
       <c r="F251" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251" t="s">
+        <v>625</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>342</v>
       </c>
@@ -6964,8 +8922,14 @@
       <c r="F252" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252" t="s">
+        <v>626</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>343</v>
       </c>
@@ -6984,8 +8948,14 @@
       <c r="F253" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253" t="s">
+        <v>627</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>344</v>
       </c>
@@ -7004,8 +8974,14 @@
       <c r="F254" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254" t="s">
+        <v>628</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>345</v>
       </c>
@@ -7024,8 +9000,14 @@
       <c r="F255" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G255" t="s">
+        <v>520</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>348</v>
       </c>
@@ -7044,8 +9026,14 @@
       <c r="F256" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256" t="s">
+        <v>520</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>349</v>
       </c>
@@ -7064,8 +9052,14 @@
       <c r="F257" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
+        <v>520</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>350</v>
       </c>
@@ -7084,8 +9078,14 @@
       <c r="F258" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
+        <v>504</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>351</v>
       </c>
@@ -7104,8 +9104,14 @@
       <c r="F259" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>504</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>352</v>
       </c>
@@ -7124,8 +9130,14 @@
       <c r="F260" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
+        <v>629</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>353</v>
       </c>
@@ -7144,8 +9156,14 @@
       <c r="F261" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G261" t="s">
+        <v>629</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>354</v>
       </c>
@@ -7164,8 +9182,14 @@
       <c r="F262" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G262" t="s">
+        <v>504</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>357</v>
       </c>
@@ -7184,8 +9208,14 @@
       <c r="F263" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
+        <v>504</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>359</v>
       </c>
@@ -7204,8 +9234,14 @@
       <c r="F264" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G264" t="s">
+        <v>510</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>360</v>
       </c>
@@ -7224,8 +9260,14 @@
       <c r="F265" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G265" t="s">
+        <v>510</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>361</v>
       </c>
@@ -7244,8 +9286,14 @@
       <c r="F266" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G266" t="s">
+        <v>525</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>362</v>
       </c>
@@ -7264,8 +9312,14 @@
       <c r="F267" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G267" t="s">
+        <v>525</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>363</v>
       </c>
@@ -7284,8 +9338,14 @@
       <c r="F268" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G268" t="s">
+        <v>520</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>365</v>
       </c>
@@ -7304,8 +9364,14 @@
       <c r="F269" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
+        <v>520</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>367</v>
       </c>
@@ -7324,8 +9390,14 @@
       <c r="F270" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G270" t="s">
+        <v>520</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>368</v>
       </c>
@@ -7344,8 +9416,14 @@
       <c r="F271" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G271" t="s">
+        <v>520</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>369</v>
       </c>
@@ -7364,8 +9442,14 @@
       <c r="F272" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G272" t="s">
+        <v>539</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>370</v>
       </c>
@@ -7384,8 +9468,14 @@
       <c r="F273" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G273" t="s">
+        <v>504</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>372</v>
       </c>
@@ -7404,8 +9494,14 @@
       <c r="F274" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G274" t="s">
+        <v>504</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>374</v>
       </c>
@@ -7424,8 +9520,14 @@
       <c r="F275" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G275" t="s">
+        <v>504</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>375</v>
       </c>
@@ -7444,8 +9546,14 @@
       <c r="F276" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G276" t="s">
+        <v>504</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>376</v>
       </c>
@@ -7464,8 +9572,14 @@
       <c r="F277" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G277" t="s">
+        <v>508</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>378</v>
       </c>
@@ -7484,8 +9598,14 @@
       <c r="F278" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G278" t="s">
+        <v>508</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>380</v>
       </c>
@@ -7504,8 +9624,14 @@
       <c r="F279" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G279" t="s">
+        <v>525</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>382</v>
       </c>
@@ -7524,8 +9650,14 @@
       <c r="F280" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G280" t="s">
+        <v>505</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>383</v>
       </c>
@@ -7544,8 +9676,14 @@
       <c r="F281" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G281" t="s">
+        <v>515</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>383</v>
       </c>
@@ -7564,8 +9702,14 @@
       <c r="F282" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G282" t="s">
+        <v>515</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>383</v>
       </c>
@@ -7584,8 +9728,14 @@
       <c r="F283" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G283" t="s">
+        <v>515</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>383</v>
       </c>
@@ -7604,8 +9754,14 @@
       <c r="F284" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>515</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>391</v>
       </c>
@@ -7624,8 +9780,14 @@
       <c r="F285" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G285" t="s">
+        <v>512</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>394</v>
       </c>
@@ -7644,8 +9806,14 @@
       <c r="F286" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G286" t="s">
+        <v>510</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>397</v>
       </c>
@@ -7664,8 +9832,14 @@
       <c r="F287" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G287" t="s">
+        <v>510</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>400</v>
       </c>
@@ -7684,8 +9858,14 @@
       <c r="F288" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G288" t="s">
+        <v>524</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>403</v>
       </c>
@@ -7704,8 +9884,14 @@
       <c r="F289" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G289" t="s">
+        <v>524</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>406</v>
       </c>
@@ -7724,8 +9910,14 @@
       <c r="F290" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G290" t="s">
+        <v>525</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>409</v>
       </c>
@@ -7744,8 +9936,14 @@
       <c r="F291" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G291" t="s">
+        <v>630</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>409</v>
       </c>
@@ -7764,8 +9962,14 @@
       <c r="F292" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G292" t="s">
+        <v>630</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>409</v>
       </c>
@@ -7784,8 +9988,14 @@
       <c r="F293" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>631</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>409</v>
       </c>
@@ -7804,8 +10014,14 @@
       <c r="F294" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G294" t="s">
+        <v>631</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>409</v>
       </c>
@@ -7824,8 +10040,14 @@
       <c r="F295" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G295" t="s">
+        <v>632</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>409</v>
       </c>
@@ -7844,8 +10066,14 @@
       <c r="F296" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G296" t="s">
+        <v>632</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>409</v>
       </c>
@@ -7864,8 +10092,14 @@
       <c r="F297" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G297" t="s">
+        <v>633</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>409</v>
       </c>
@@ -7884,8 +10118,14 @@
       <c r="F298" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G298" t="s">
+        <v>634</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>409</v>
       </c>
@@ -7904,8 +10144,14 @@
       <c r="F299" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G299" t="s">
+        <v>634</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>409</v>
       </c>
@@ -7924,8 +10170,14 @@
       <c r="F300" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>635</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -7944,8 +10196,14 @@
       <c r="F301" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G301" t="s">
+        <v>635</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>409</v>
       </c>
@@ -7964,8 +10222,14 @@
       <c r="F302" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G302" t="s">
+        <v>629</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>409</v>
       </c>
@@ -7984,8 +10248,14 @@
       <c r="F303" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G303" t="s">
+        <v>629</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>430</v>
       </c>
@@ -8004,8 +10274,14 @@
       <c r="F304" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G304" t="s">
+        <v>526</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>431</v>
       </c>
@@ -8024,8 +10300,14 @@
       <c r="F305" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G305" t="s">
+        <v>636</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>432</v>
       </c>
@@ -8044,8 +10326,14 @@
       <c r="F306" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G306" t="s">
+        <v>575</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>432</v>
       </c>
@@ -8064,8 +10352,14 @@
       <c r="F307" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G307" t="s">
+        <v>575</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>432</v>
       </c>
@@ -8084,8 +10378,14 @@
       <c r="F308" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G308" t="s">
+        <v>637</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>432</v>
       </c>
@@ -8104,8 +10404,14 @@
       <c r="F309" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G309" t="s">
+        <v>637</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>432</v>
       </c>
@@ -8124,8 +10430,14 @@
       <c r="F310" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G310" t="s">
+        <v>579</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>432</v>
       </c>
@@ -8144,8 +10456,14 @@
       <c r="F311" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G311" t="s">
+        <v>579</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>432</v>
       </c>
@@ -8164,8 +10482,14 @@
       <c r="F312" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G312" t="s">
+        <v>580</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>432</v>
       </c>
@@ -8184,8 +10508,14 @@
       <c r="F313" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G313" t="s">
+        <v>580</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>432</v>
       </c>
@@ -8204,8 +10534,14 @@
       <c r="F314" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G314" t="s">
+        <v>585</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>432</v>
       </c>
@@ -8224,8 +10560,14 @@
       <c r="F315" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G315" t="s">
+        <v>585</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>432</v>
       </c>
@@ -8244,8 +10586,14 @@
       <c r="F316" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G316" t="s">
+        <v>638</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>432</v>
       </c>
@@ -8264,8 +10612,14 @@
       <c r="F317" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G317" t="s">
+        <v>638</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>432</v>
       </c>
@@ -8284,8 +10638,14 @@
       <c r="F318" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G318" t="s">
+        <v>639</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>432</v>
       </c>
@@ -8304,8 +10664,14 @@
       <c r="F319" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G319" t="s">
+        <v>639</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>432</v>
       </c>
@@ -8324,8 +10690,14 @@
       <c r="F320" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G320" t="s">
+        <v>639</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>432</v>
       </c>
@@ -8344,8 +10716,14 @@
       <c r="F321" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G321" t="s">
+        <v>639</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>432</v>
       </c>
@@ -8364,8 +10742,14 @@
       <c r="F322" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G322" t="s">
+        <v>574</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>432</v>
       </c>
@@ -8384,8 +10768,14 @@
       <c r="F323" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G323" t="s">
+        <v>574</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>432</v>
       </c>
@@ -8404,8 +10794,14 @@
       <c r="F324" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G324" t="s">
+        <v>640</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>432</v>
       </c>
@@ -8424,8 +10820,14 @@
       <c r="F325" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G325" t="s">
+        <v>640</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>432</v>
       </c>
@@ -8444,8 +10846,14 @@
       <c r="F326" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G326" t="s">
+        <v>641</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>432</v>
       </c>
@@ -8464,8 +10872,14 @@
       <c r="F327" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G327" t="s">
+        <v>641</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>466</v>
       </c>
@@ -8484,8 +10898,14 @@
       <c r="F328" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G328" t="s">
+        <v>520</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>468</v>
       </c>
@@ -8504,8 +10924,14 @@
       <c r="F329" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G329" t="s">
+        <v>520</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>471</v>
       </c>
@@ -8524,8 +10950,14 @@
       <c r="F330" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G330" t="s">
+        <v>520</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>473</v>
       </c>
@@ -8544,8 +10976,14 @@
       <c r="F331" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G331" t="s">
+        <v>520</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>475</v>
       </c>
@@ -8564,8 +11002,14 @@
       <c r="F332" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G332" t="s">
+        <v>514</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>476</v>
       </c>
@@ -8584,8 +11028,14 @@
       <c r="F333" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G333" t="s">
+        <v>514</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>477</v>
       </c>
@@ -8604,8 +11054,14 @@
       <c r="F334" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G334" t="s">
+        <v>504</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>479</v>
       </c>
@@ -8624,8 +11080,14 @@
       <c r="F335" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G335" t="s">
+        <v>521</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>479</v>
       </c>
@@ -8644,8 +11106,14 @@
       <c r="F336" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G336" t="s">
+        <v>521</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>482</v>
       </c>
@@ -8664,8 +11132,14 @@
       <c r="F337" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G337" t="s">
+        <v>509</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>484</v>
       </c>
@@ -8684,8 +11158,14 @@
       <c r="F338" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G338" t="s">
+        <v>521</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>484</v>
       </c>
@@ -8704,8 +11184,14 @@
       <c r="F339" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G339" t="s">
+        <v>521</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>487</v>
       </c>
@@ -8724,8 +11210,14 @@
       <c r="F340" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G340" t="s">
+        <v>629</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>489</v>
       </c>
@@ -8744,8 +11236,14 @@
       <c r="F341" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G341" t="s">
+        <v>629</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>491</v>
       </c>
@@ -8764,8 +11262,14 @@
       <c r="F342" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G342" t="s">
+        <v>642</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>491</v>
       </c>
@@ -8784,8 +11288,14 @@
       <c r="F343" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G343" t="s">
+        <v>642</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>493</v>
       </c>
@@ -8804,8 +11314,14 @@
       <c r="F344" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G344" t="s">
+        <v>643</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>493</v>
       </c>
@@ -8824,8 +11340,14 @@
       <c r="F345" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G345" t="s">
+        <v>643</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>495</v>
       </c>
@@ -8844,8 +11366,14 @@
       <c r="F346" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G346" t="s">
+        <v>644</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>495</v>
       </c>
@@ -8864,8 +11392,14 @@
       <c r="F347" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G347" t="s">
+        <v>644</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>497</v>
       </c>
@@ -8884,8 +11418,14 @@
       <c r="F348" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G348" t="s">
+        <v>645</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>497</v>
       </c>
@@ -8904,8 +11444,14 @@
       <c r="F349" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G349" t="s">
+        <v>645</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>499</v>
       </c>
@@ -8924,8 +11470,14 @@
       <c r="F350" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G350" t="s">
+        <v>646</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>499</v>
       </c>
@@ -8944,8 +11496,14 @@
       <c r="F351" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G351" t="s">
+        <v>646</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>501</v>
       </c>
@@ -8964,8 +11522,14 @@
       <c r="F352" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G352" t="s">
+        <v>647</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>501</v>
       </c>
@@ -8983,6 +11547,12 @@
       </c>
       <c r="F353" t="s">
         <v>502</v>
+      </c>
+      <c r="G353" t="s">
+        <v>647</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/data/Obese_Assays.xlsx
+++ b/data/Obese_Assays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borajin/Documents/BoraJin2018~/Research/DoseResponse/BMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738E4888-BD5B-1140-A0F1-C1DD64256115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FD5A21-692A-7241-BD28-42EEAD6399E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="700" windowWidth="27640" windowHeight="15480" xr2:uid="{FA2592C9-A5B5-9744-9CB3-1703D97CEDAC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="674">
   <si>
     <t>assay_name</t>
   </si>
@@ -1990,6 +1990,75 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>detection_technology_type</t>
+  </si>
+  <si>
+    <t>Label Free Technology</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Spectrophotometry</t>
+  </si>
+  <si>
+    <t>Radiometry</t>
+  </si>
+  <si>
+    <t>Luminescence</t>
+  </si>
+  <si>
+    <t>Microscopy</t>
+  </si>
+  <si>
+    <t>detection_technology</t>
+  </si>
+  <si>
+    <t>RT-CES</t>
+  </si>
+  <si>
+    <t>RT-PCR and Capillary electrophoresis</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>Colorimetric</t>
+  </si>
+  <si>
+    <t>Fluorescence and electrophoretic mobility shift</t>
+  </si>
+  <si>
+    <t>Filter-based radiodetection</t>
+  </si>
+  <si>
+    <t>Lysate-based radiodetection</t>
+  </si>
+  <si>
+    <t>TR-FRET</t>
+  </si>
+  <si>
+    <t>Fluorescence Polarization</t>
+  </si>
+  <si>
+    <t>AlphaLISA immunoassay</t>
+  </si>
+  <si>
+    <t>Luciferase</t>
+  </si>
+  <si>
+    <t>Protein-fragment Complementation</t>
+  </si>
+  <si>
+    <t>GAL4 b-lactamase reporter gene</t>
+  </si>
+  <si>
+    <t>Luciferase-coupled ATP quantitation</t>
+  </si>
+  <si>
+    <t>CALUX luciferase quantitation</t>
   </si>
 </sst>
 </file>
@@ -2359,9 +2428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE34549-2B81-BB47-971D-FA8D8C13931C}">
   <dimension ref="A1:K353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2374,6 +2443,8 @@
     <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2401,6 +2472,12 @@
       <c r="H1" s="4" t="s">
         <v>648</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2428,6 +2505,12 @@
       <c r="H2" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="I2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J2" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2454,6 +2537,12 @@
       <c r="H3" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I3" t="s">
+        <v>653</v>
+      </c>
+      <c r="J3" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2480,6 +2569,12 @@
       <c r="H4" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I4" t="s">
+        <v>653</v>
+      </c>
+      <c r="J4" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2506,6 +2601,12 @@
       <c r="H5" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I5" t="s">
+        <v>653</v>
+      </c>
+      <c r="J5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2532,6 +2633,12 @@
       <c r="H6" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I6" t="s">
+        <v>653</v>
+      </c>
+      <c r="J6" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2558,6 +2665,12 @@
       <c r="H7" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="I7" t="s">
+        <v>653</v>
+      </c>
+      <c r="J7" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2584,6 +2697,12 @@
       <c r="H8" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I8" t="s">
+        <v>653</v>
+      </c>
+      <c r="J8" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2610,6 +2729,12 @@
       <c r="H9" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I9" t="s">
+        <v>653</v>
+      </c>
+      <c r="J9" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2636,6 +2761,12 @@
       <c r="H10" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I10" t="s">
+        <v>653</v>
+      </c>
+      <c r="J10" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2662,6 +2793,12 @@
       <c r="H11" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I11" t="s">
+        <v>653</v>
+      </c>
+      <c r="J11" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2688,6 +2825,12 @@
       <c r="H12" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I12" t="s">
+        <v>653</v>
+      </c>
+      <c r="J12" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2714,6 +2857,12 @@
       <c r="H13" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I13" t="s">
+        <v>653</v>
+      </c>
+      <c r="J13" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2740,6 +2889,12 @@
       <c r="H14" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I14" t="s">
+        <v>653</v>
+      </c>
+      <c r="J14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2766,6 +2921,12 @@
       <c r="H15" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="I15" t="s">
+        <v>653</v>
+      </c>
+      <c r="J15" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2792,8 +2953,14 @@
       <c r="H16" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>653</v>
+      </c>
+      <c r="J16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2818,8 +2985,14 @@
       <c r="H17" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>653</v>
+      </c>
+      <c r="J17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2844,8 +3017,14 @@
       <c r="H18" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>653</v>
+      </c>
+      <c r="J18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2870,8 +3049,14 @@
       <c r="H19" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>653</v>
+      </c>
+      <c r="J19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2896,8 +3081,14 @@
       <c r="H20" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>653</v>
+      </c>
+      <c r="J20" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2922,8 +3113,14 @@
       <c r="H21" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>653</v>
+      </c>
+      <c r="J21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2948,8 +3145,14 @@
       <c r="H22" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>653</v>
+      </c>
+      <c r="J22" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2974,8 +3177,14 @@
       <c r="H23" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>653</v>
+      </c>
+      <c r="J23" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3000,8 +3209,14 @@
       <c r="H24" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>653</v>
+      </c>
+      <c r="J24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3026,8 +3241,14 @@
       <c r="H25" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>653</v>
+      </c>
+      <c r="J25" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3052,8 +3273,14 @@
       <c r="H26" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>653</v>
+      </c>
+      <c r="J26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3078,8 +3305,14 @@
       <c r="H27" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>653</v>
+      </c>
+      <c r="J27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3104,8 +3337,14 @@
       <c r="H28" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>653</v>
+      </c>
+      <c r="J28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3130,8 +3369,14 @@
       <c r="H29" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>653</v>
+      </c>
+      <c r="J29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3156,8 +3401,14 @@
       <c r="H30" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>653</v>
+      </c>
+      <c r="J30" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3182,8 +3433,14 @@
       <c r="H31" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>653</v>
+      </c>
+      <c r="J31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3208,8 +3465,14 @@
       <c r="H32" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>653</v>
+      </c>
+      <c r="J32" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3234,8 +3497,14 @@
       <c r="H33" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>653</v>
+      </c>
+      <c r="J33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3260,8 +3529,14 @@
       <c r="H34" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>653</v>
+      </c>
+      <c r="J34" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3286,8 +3561,14 @@
       <c r="H35" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>653</v>
+      </c>
+      <c r="J35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3312,8 +3593,14 @@
       <c r="H36" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>653</v>
+      </c>
+      <c r="J36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3338,8 +3625,14 @@
       <c r="H37" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>653</v>
+      </c>
+      <c r="J37" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3364,8 +3657,14 @@
       <c r="H38" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>653</v>
+      </c>
+      <c r="J38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3390,8 +3689,14 @@
       <c r="H39" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>653</v>
+      </c>
+      <c r="J39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3416,8 +3721,14 @@
       <c r="H40" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>653</v>
+      </c>
+      <c r="J40" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3442,8 +3753,14 @@
       <c r="H41" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>653</v>
+      </c>
+      <c r="J41" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3468,8 +3785,14 @@
       <c r="H42" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>653</v>
+      </c>
+      <c r="J42" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3494,8 +3817,14 @@
       <c r="H43" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>653</v>
+      </c>
+      <c r="J43" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3520,8 +3849,14 @@
       <c r="H44" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>653</v>
+      </c>
+      <c r="J44" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3546,8 +3881,14 @@
       <c r="H45" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>653</v>
+      </c>
+      <c r="J45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3572,8 +3913,14 @@
       <c r="H46" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>653</v>
+      </c>
+      <c r="J46" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -3598,8 +3945,14 @@
       <c r="H47" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>653</v>
+      </c>
+      <c r="J47" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -3624,8 +3977,14 @@
       <c r="H48" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>653</v>
+      </c>
+      <c r="J48" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3650,8 +4009,14 @@
       <c r="H49" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>653</v>
+      </c>
+      <c r="J49" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3676,8 +4041,14 @@
       <c r="H50" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>653</v>
+      </c>
+      <c r="J50" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3702,8 +4073,14 @@
       <c r="H51" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>653</v>
+      </c>
+      <c r="J51" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3728,8 +4105,14 @@
       <c r="H52" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>653</v>
+      </c>
+      <c r="J52" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3754,8 +4137,14 @@
       <c r="H53" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>653</v>
+      </c>
+      <c r="J53" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3780,8 +4169,14 @@
       <c r="H54" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>653</v>
+      </c>
+      <c r="J54" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3806,8 +4201,14 @@
       <c r="H55" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>653</v>
+      </c>
+      <c r="J55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3832,8 +4233,14 @@
       <c r="H56" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>653</v>
+      </c>
+      <c r="J56" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3858,8 +4265,14 @@
       <c r="H57" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>653</v>
+      </c>
+      <c r="J57" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3884,8 +4297,14 @@
       <c r="H58" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>653</v>
+      </c>
+      <c r="J58" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -3910,8 +4329,14 @@
       <c r="H59" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>653</v>
+      </c>
+      <c r="J59" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3936,8 +4361,14 @@
       <c r="H60" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>653</v>
+      </c>
+      <c r="J60" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3962,8 +4393,14 @@
       <c r="H61" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>653</v>
+      </c>
+      <c r="J61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -3988,8 +4425,14 @@
       <c r="H62" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>653</v>
+      </c>
+      <c r="J62" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -4014,8 +4457,14 @@
       <c r="H63" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>653</v>
+      </c>
+      <c r="J63" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -4040,8 +4489,14 @@
       <c r="H64" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>653</v>
+      </c>
+      <c r="J64" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -4066,8 +4521,14 @@
       <c r="H65" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>653</v>
+      </c>
+      <c r="J65" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -4092,8 +4553,14 @@
       <c r="H66" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>653</v>
+      </c>
+      <c r="J66" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -4118,8 +4585,14 @@
       <c r="H67" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>653</v>
+      </c>
+      <c r="J67" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -4144,8 +4617,14 @@
       <c r="H68" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>653</v>
+      </c>
+      <c r="J68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -4170,8 +4649,14 @@
       <c r="H69" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>653</v>
+      </c>
+      <c r="J69" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -4196,8 +4681,14 @@
       <c r="H70" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>653</v>
+      </c>
+      <c r="J70" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -4222,8 +4713,14 @@
       <c r="H71" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>653</v>
+      </c>
+      <c r="J71" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -4248,8 +4745,14 @@
       <c r="H72" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>653</v>
+      </c>
+      <c r="J72" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4274,8 +4777,14 @@
       <c r="H73" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>653</v>
+      </c>
+      <c r="J73" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -4300,8 +4809,14 @@
       <c r="H74" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>653</v>
+      </c>
+      <c r="J74" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -4326,8 +4841,14 @@
       <c r="H75" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>653</v>
+      </c>
+      <c r="J75" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -4352,8 +4873,14 @@
       <c r="H76" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>653</v>
+      </c>
+      <c r="J76" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -4378,8 +4905,14 @@
       <c r="H77" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>653</v>
+      </c>
+      <c r="J77" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -4404,8 +4937,14 @@
       <c r="H78" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>653</v>
+      </c>
+      <c r="J78" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -4430,8 +4969,14 @@
       <c r="H79" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>653</v>
+      </c>
+      <c r="J79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -4456,8 +5001,14 @@
       <c r="H80" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>653</v>
+      </c>
+      <c r="J80" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -4482,8 +5033,14 @@
       <c r="H81" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>653</v>
+      </c>
+      <c r="J81" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -4508,8 +5065,14 @@
       <c r="H82" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>653</v>
+      </c>
+      <c r="J82" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -4534,8 +5097,14 @@
       <c r="H83" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>653</v>
+      </c>
+      <c r="J83" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -4560,8 +5129,14 @@
       <c r="H84" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>653</v>
+      </c>
+      <c r="J84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -4586,8 +5161,14 @@
       <c r="H85" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>653</v>
+      </c>
+      <c r="J85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -4612,8 +5193,14 @@
       <c r="H86" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>653</v>
+      </c>
+      <c r="J86" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -4638,8 +5225,14 @@
       <c r="H87" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -4664,8 +5257,14 @@
       <c r="H88" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>653</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -4690,8 +5289,14 @@
       <c r="H89" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>653</v>
+      </c>
+      <c r="J89" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -4716,8 +5321,14 @@
       <c r="H90" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>653</v>
+      </c>
+      <c r="J90" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -4742,8 +5353,14 @@
       <c r="H91" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>653</v>
+      </c>
+      <c r="J91" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -4768,8 +5385,14 @@
       <c r="H92" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J92" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -4794,8 +5417,14 @@
       <c r="H93" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>653</v>
+      </c>
+      <c r="J93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4820,8 +5449,14 @@
       <c r="H94" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>653</v>
+      </c>
+      <c r="J94" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -4846,8 +5481,14 @@
       <c r="H95" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>653</v>
+      </c>
+      <c r="J95" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -4872,8 +5513,14 @@
       <c r="H96" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>653</v>
+      </c>
+      <c r="J96" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -4898,8 +5545,14 @@
       <c r="H97" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>653</v>
+      </c>
+      <c r="J97" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -4924,8 +5577,14 @@
       <c r="H98" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>653</v>
+      </c>
+      <c r="J98" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -4950,8 +5609,14 @@
       <c r="H99" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>653</v>
+      </c>
+      <c r="J99" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -4976,8 +5641,14 @@
       <c r="H100" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>653</v>
+      </c>
+      <c r="J100" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -5002,8 +5673,14 @@
       <c r="H101" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>653</v>
+      </c>
+      <c r="J101" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -5028,8 +5705,14 @@
       <c r="H102" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>653</v>
+      </c>
+      <c r="J102" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5054,8 +5737,14 @@
       <c r="H103" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>653</v>
+      </c>
+      <c r="J103" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -5080,8 +5769,14 @@
       <c r="H104" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>653</v>
+      </c>
+      <c r="J104" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>182</v>
       </c>
@@ -5106,8 +5801,14 @@
       <c r="H105" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>653</v>
+      </c>
+      <c r="J105" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -5132,8 +5833,14 @@
       <c r="H106" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>653</v>
+      </c>
+      <c r="J106" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -5158,8 +5865,14 @@
       <c r="H107" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>653</v>
+      </c>
+      <c r="J107" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>182</v>
       </c>
@@ -5184,8 +5897,14 @@
       <c r="H108" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>653</v>
+      </c>
+      <c r="J108" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -5210,8 +5929,14 @@
       <c r="H109" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>653</v>
+      </c>
+      <c r="J109" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -5236,8 +5961,14 @@
       <c r="H110" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>653</v>
+      </c>
+      <c r="J110" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -5262,8 +5993,14 @@
       <c r="H111" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>653</v>
+      </c>
+      <c r="J111" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -5288,8 +6025,14 @@
       <c r="H112" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>653</v>
+      </c>
+      <c r="J112" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -5314,8 +6057,14 @@
       <c r="H113" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>653</v>
+      </c>
+      <c r="J113" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -5340,8 +6089,14 @@
       <c r="H114" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>653</v>
+      </c>
+      <c r="J114" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -5366,8 +6121,14 @@
       <c r="H115" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>653</v>
+      </c>
+      <c r="J115" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -5392,8 +6153,14 @@
       <c r="H116" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>653</v>
+      </c>
+      <c r="J116" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>198</v>
       </c>
@@ -5418,8 +6185,14 @@
       <c r="H117" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>653</v>
+      </c>
+      <c r="J117" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -5444,8 +6217,14 @@
       <c r="H118" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>653</v>
+      </c>
+      <c r="J118" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -5470,8 +6249,14 @@
       <c r="H119" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>654</v>
+      </c>
+      <c r="J119" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>201</v>
       </c>
@@ -5496,8 +6281,14 @@
       <c r="H120" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>654</v>
+      </c>
+      <c r="J120" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -5522,8 +6313,14 @@
       <c r="H121" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>653</v>
+      </c>
+      <c r="J121" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -5548,8 +6345,14 @@
       <c r="H122" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>653</v>
+      </c>
+      <c r="J122" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -5574,8 +6377,14 @@
       <c r="H123" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>653</v>
+      </c>
+      <c r="J123" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -5600,8 +6409,14 @@
       <c r="H124" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>653</v>
+      </c>
+      <c r="J124" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -5626,8 +6441,14 @@
       <c r="H125" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>653</v>
+      </c>
+      <c r="J125" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>207</v>
       </c>
@@ -5652,8 +6473,14 @@
       <c r="H126" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>653</v>
+      </c>
+      <c r="J126" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -5678,8 +6505,14 @@
       <c r="H127" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>653</v>
+      </c>
+      <c r="J127" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -5704,8 +6537,14 @@
       <c r="H128" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>653</v>
+      </c>
+      <c r="J128" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -5730,8 +6569,14 @@
       <c r="H129" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>654</v>
+      </c>
+      <c r="J129" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -5756,8 +6601,14 @@
       <c r="H130" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>654</v>
+      </c>
+      <c r="J130" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -5782,8 +6633,14 @@
       <c r="H131" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>653</v>
+      </c>
+      <c r="J131" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -5808,8 +6665,14 @@
       <c r="H132" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>653</v>
+      </c>
+      <c r="J132" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -5834,8 +6697,14 @@
       <c r="H133" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>653</v>
+      </c>
+      <c r="J133" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -5860,8 +6729,14 @@
       <c r="H134" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>653</v>
+      </c>
+      <c r="J134" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -5886,8 +6761,14 @@
       <c r="H135" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>653</v>
+      </c>
+      <c r="J135" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -5912,8 +6793,14 @@
       <c r="H136" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>653</v>
+      </c>
+      <c r="J136" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -5938,8 +6825,14 @@
       <c r="H137" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>653</v>
+      </c>
+      <c r="J137" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -5964,8 +6857,14 @@
       <c r="H138" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>653</v>
+      </c>
+      <c r="J138" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -5990,8 +6889,14 @@
       <c r="H139" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>653</v>
+      </c>
+      <c r="J139" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -6016,8 +6921,14 @@
       <c r="H140" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>653</v>
+      </c>
+      <c r="J140" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -6042,8 +6953,14 @@
       <c r="H141" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>653</v>
+      </c>
+      <c r="J141" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -6068,8 +6985,14 @@
       <c r="H142" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>653</v>
+      </c>
+      <c r="J142" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>225</v>
       </c>
@@ -6094,8 +7017,14 @@
       <c r="H143" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>653</v>
+      </c>
+      <c r="J143" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -6120,8 +7049,14 @@
       <c r="H144" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>653</v>
+      </c>
+      <c r="J144" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -6146,8 +7081,14 @@
       <c r="H145" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>653</v>
+      </c>
+      <c r="J145" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -6172,8 +7113,14 @@
       <c r="H146" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>653</v>
+      </c>
+      <c r="J146" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>229</v>
       </c>
@@ -6198,8 +7145,14 @@
       <c r="H147" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>653</v>
+      </c>
+      <c r="J147" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -6224,8 +7177,14 @@
       <c r="H148" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>653</v>
+      </c>
+      <c r="J148" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>231</v>
       </c>
@@ -6250,8 +7209,14 @@
       <c r="H149" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>653</v>
+      </c>
+      <c r="J149" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6276,8 +7241,14 @@
       <c r="H150" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>653</v>
+      </c>
+      <c r="J150" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -6302,8 +7273,14 @@
       <c r="H151" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>653</v>
+      </c>
+      <c r="J151" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -6328,8 +7305,14 @@
       <c r="H152" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>653</v>
+      </c>
+      <c r="J152" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -6354,8 +7337,14 @@
       <c r="H153" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="s">
+        <v>653</v>
+      </c>
+      <c r="J153" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -6380,8 +7369,14 @@
       <c r="H154" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>653</v>
+      </c>
+      <c r="J154" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>237</v>
       </c>
@@ -6406,8 +7401,14 @@
       <c r="H155" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>653</v>
+      </c>
+      <c r="J155" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -6432,8 +7433,14 @@
       <c r="H156" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>653</v>
+      </c>
+      <c r="J156" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -6458,8 +7465,14 @@
       <c r="H157" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="s">
+        <v>653</v>
+      </c>
+      <c r="J157" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -6484,8 +7497,14 @@
       <c r="H158" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>653</v>
+      </c>
+      <c r="J158" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>241</v>
       </c>
@@ -6510,8 +7529,14 @@
       <c r="H159" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>653</v>
+      </c>
+      <c r="J159" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -6536,8 +7561,14 @@
       <c r="H160" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>653</v>
+      </c>
+      <c r="J160" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>243</v>
       </c>
@@ -6562,8 +7593,14 @@
       <c r="H161" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>653</v>
+      </c>
+      <c r="J161" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -6588,8 +7625,14 @@
       <c r="H162" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>653</v>
+      </c>
+      <c r="J162" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -6614,8 +7657,14 @@
       <c r="H163" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>653</v>
+      </c>
+      <c r="J163" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -6640,8 +7689,14 @@
       <c r="H164" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>653</v>
+      </c>
+      <c r="J164" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>247</v>
       </c>
@@ -6666,8 +7721,14 @@
       <c r="H165" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="s">
+        <v>653</v>
+      </c>
+      <c r="J165" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -6692,8 +7753,14 @@
       <c r="H166" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>653</v>
+      </c>
+      <c r="J166" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>249</v>
       </c>
@@ -6718,8 +7785,14 @@
       <c r="H167" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="s">
+        <v>655</v>
+      </c>
+      <c r="J167" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -6744,8 +7817,14 @@
       <c r="H168" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="s">
+        <v>655</v>
+      </c>
+      <c r="J168" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -6770,8 +7849,14 @@
       <c r="H169" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="s">
+        <v>655</v>
+      </c>
+      <c r="J169" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -6796,8 +7881,14 @@
       <c r="H170" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="s">
+        <v>655</v>
+      </c>
+      <c r="J170" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>254</v>
       </c>
@@ -6822,8 +7913,14 @@
       <c r="H171" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" t="s">
+        <v>655</v>
+      </c>
+      <c r="J171" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>254</v>
       </c>
@@ -6848,8 +7945,14 @@
       <c r="H172" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" t="s">
+        <v>655</v>
+      </c>
+      <c r="J172" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -6874,8 +7977,14 @@
       <c r="H173" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" t="s">
+        <v>655</v>
+      </c>
+      <c r="J173" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -6900,8 +8009,14 @@
       <c r="H174" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" t="s">
+        <v>655</v>
+      </c>
+      <c r="J174" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>258</v>
       </c>
@@ -6926,8 +8041,14 @@
       <c r="H175" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" t="s">
+        <v>655</v>
+      </c>
+      <c r="J175" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>258</v>
       </c>
@@ -6952,8 +8073,14 @@
       <c r="H176" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" t="s">
+        <v>655</v>
+      </c>
+      <c r="J176" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>260</v>
       </c>
@@ -6978,8 +8105,14 @@
       <c r="H177" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" t="s">
+        <v>655</v>
+      </c>
+      <c r="J177" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>262</v>
       </c>
@@ -7004,8 +8137,14 @@
       <c r="H178" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" t="s">
+        <v>655</v>
+      </c>
+      <c r="J178" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>263</v>
       </c>
@@ -7030,8 +8169,14 @@
       <c r="H179" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" t="s">
+        <v>655</v>
+      </c>
+      <c r="J179" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>264</v>
       </c>
@@ -7056,8 +8201,14 @@
       <c r="H180" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>655</v>
+      </c>
+      <c r="J180" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>265</v>
       </c>
@@ -7082,8 +8233,14 @@
       <c r="H181" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" t="s">
+        <v>655</v>
+      </c>
+      <c r="J181" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -7108,8 +8265,14 @@
       <c r="H182" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" t="s">
+        <v>655</v>
+      </c>
+      <c r="J182" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -7134,8 +8297,14 @@
       <c r="H183" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>655</v>
+      </c>
+      <c r="J183" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>268</v>
       </c>
@@ -7160,8 +8329,14 @@
       <c r="H184" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" t="s">
+        <v>655</v>
+      </c>
+      <c r="J184" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>269</v>
       </c>
@@ -7186,8 +8361,14 @@
       <c r="H185" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" t="s">
+        <v>655</v>
+      </c>
+      <c r="J185" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>270</v>
       </c>
@@ -7212,8 +8393,14 @@
       <c r="H186" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" t="s">
+        <v>655</v>
+      </c>
+      <c r="J186" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>271</v>
       </c>
@@ -7238,8 +8425,14 @@
       <c r="H187" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" t="s">
+        <v>655</v>
+      </c>
+      <c r="J187" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -7264,8 +8457,14 @@
       <c r="H188" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" t="s">
+        <v>655</v>
+      </c>
+      <c r="J188" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>273</v>
       </c>
@@ -7290,8 +8489,14 @@
       <c r="H189" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" t="s">
+        <v>655</v>
+      </c>
+      <c r="J189" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>274</v>
       </c>
@@ -7316,8 +8521,14 @@
       <c r="H190" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" t="s">
+        <v>655</v>
+      </c>
+      <c r="J190" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>275</v>
       </c>
@@ -7342,8 +8553,14 @@
       <c r="H191" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="s">
+        <v>655</v>
+      </c>
+      <c r="J191" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>276</v>
       </c>
@@ -7368,8 +8585,14 @@
       <c r="H192" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" t="s">
+        <v>655</v>
+      </c>
+      <c r="J192" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>277</v>
       </c>
@@ -7394,8 +8617,14 @@
       <c r="H193" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" t="s">
+        <v>655</v>
+      </c>
+      <c r="J193" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>278</v>
       </c>
@@ -7420,8 +8649,14 @@
       <c r="H194" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" t="s">
+        <v>655</v>
+      </c>
+      <c r="J194" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>279</v>
       </c>
@@ -7446,8 +8681,14 @@
       <c r="H195" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" t="s">
+        <v>655</v>
+      </c>
+      <c r="J195" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>280</v>
       </c>
@@ -7472,8 +8713,14 @@
       <c r="H196" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" t="s">
+        <v>655</v>
+      </c>
+      <c r="J196" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>281</v>
       </c>
@@ -7498,8 +8745,14 @@
       <c r="H197" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" t="s">
+        <v>655</v>
+      </c>
+      <c r="J197" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>282</v>
       </c>
@@ -7524,8 +8777,14 @@
       <c r="H198" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" t="s">
+        <v>655</v>
+      </c>
+      <c r="J198" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>283</v>
       </c>
@@ -7550,8 +8809,14 @@
       <c r="H199" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" t="s">
+        <v>655</v>
+      </c>
+      <c r="J199" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>284</v>
       </c>
@@ -7576,8 +8841,14 @@
       <c r="H200" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" t="s">
+        <v>655</v>
+      </c>
+      <c r="J200" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>285</v>
       </c>
@@ -7602,8 +8873,14 @@
       <c r="H201" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" t="s">
+        <v>655</v>
+      </c>
+      <c r="J201" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>286</v>
       </c>
@@ -7628,8 +8905,14 @@
       <c r="H202" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" t="s">
+        <v>655</v>
+      </c>
+      <c r="J202" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>287</v>
       </c>
@@ -7654,8 +8937,14 @@
       <c r="H203" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" t="s">
+        <v>655</v>
+      </c>
+      <c r="J203" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>289</v>
       </c>
@@ -7680,8 +8969,14 @@
       <c r="H204" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" t="s">
+        <v>655</v>
+      </c>
+      <c r="J204" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -7706,8 +9001,14 @@
       <c r="H205" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" t="s">
+        <v>655</v>
+      </c>
+      <c r="J205" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>292</v>
       </c>
@@ -7732,8 +9033,14 @@
       <c r="H206" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" t="s">
+        <v>655</v>
+      </c>
+      <c r="J206" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>293</v>
       </c>
@@ -7758,8 +9065,14 @@
       <c r="H207" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" t="s">
+        <v>655</v>
+      </c>
+      <c r="J207" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>294</v>
       </c>
@@ -7784,8 +9097,14 @@
       <c r="H208" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" t="s">
+        <v>655</v>
+      </c>
+      <c r="J208" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>295</v>
       </c>
@@ -7810,8 +9129,14 @@
       <c r="H209" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" t="s">
+        <v>655</v>
+      </c>
+      <c r="J209" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>296</v>
       </c>
@@ -7836,8 +9161,14 @@
       <c r="H210" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" t="s">
+        <v>655</v>
+      </c>
+      <c r="J210" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>297</v>
       </c>
@@ -7862,8 +9193,14 @@
       <c r="H211" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" t="s">
+        <v>655</v>
+      </c>
+      <c r="J211" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>298</v>
       </c>
@@ -7888,8 +9225,14 @@
       <c r="H212" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" t="s">
+        <v>655</v>
+      </c>
+      <c r="J212" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -7914,8 +9257,14 @@
       <c r="H213" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" t="s">
+        <v>655</v>
+      </c>
+      <c r="J213" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -7940,8 +9289,14 @@
       <c r="H214" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" t="s">
+        <v>655</v>
+      </c>
+      <c r="J214" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>301</v>
       </c>
@@ -7966,8 +9321,14 @@
       <c r="H215" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" t="s">
+        <v>655</v>
+      </c>
+      <c r="J215" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>302</v>
       </c>
@@ -7992,8 +9353,14 @@
       <c r="H216" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" t="s">
+        <v>655</v>
+      </c>
+      <c r="J216" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>303</v>
       </c>
@@ -8018,8 +9385,14 @@
       <c r="H217" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" t="s">
+        <v>655</v>
+      </c>
+      <c r="J217" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>305</v>
       </c>
@@ -8044,8 +9417,14 @@
       <c r="H218" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" t="s">
+        <v>655</v>
+      </c>
+      <c r="J218" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>306</v>
       </c>
@@ -8070,8 +9449,14 @@
       <c r="H219" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" t="s">
+        <v>655</v>
+      </c>
+      <c r="J219" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>307</v>
       </c>
@@ -8096,8 +9481,14 @@
       <c r="H220" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" t="s">
+        <v>655</v>
+      </c>
+      <c r="J220" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>308</v>
       </c>
@@ -8122,8 +9513,14 @@
       <c r="H221" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" t="s">
+        <v>655</v>
+      </c>
+      <c r="J221" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>309</v>
       </c>
@@ -8148,8 +9545,14 @@
       <c r="H222" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" t="s">
+        <v>655</v>
+      </c>
+      <c r="J222" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>310</v>
       </c>
@@ -8174,8 +9577,14 @@
       <c r="H223" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" t="s">
+        <v>655</v>
+      </c>
+      <c r="J223" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>311</v>
       </c>
@@ -8200,8 +9609,14 @@
       <c r="H224" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" t="s">
+        <v>655</v>
+      </c>
+      <c r="J224" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>312</v>
       </c>
@@ -8226,8 +9641,14 @@
       <c r="H225" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" t="s">
+        <v>655</v>
+      </c>
+      <c r="J225" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>313</v>
       </c>
@@ -8252,8 +9673,14 @@
       <c r="H226" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" t="s">
+        <v>655</v>
+      </c>
+      <c r="J226" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>314</v>
       </c>
@@ -8278,8 +9705,14 @@
       <c r="H227" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" t="s">
+        <v>655</v>
+      </c>
+      <c r="J227" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>315</v>
       </c>
@@ -8304,8 +9737,14 @@
       <c r="H228" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" t="s">
+        <v>655</v>
+      </c>
+      <c r="J228" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>316</v>
       </c>
@@ -8330,8 +9769,14 @@
       <c r="H229" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" t="s">
+        <v>655</v>
+      </c>
+      <c r="J229" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>317</v>
       </c>
@@ -8356,8 +9801,14 @@
       <c r="H230" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" t="s">
+        <v>655</v>
+      </c>
+      <c r="J230" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>318</v>
       </c>
@@ -8382,8 +9833,14 @@
       <c r="H231" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" t="s">
+        <v>655</v>
+      </c>
+      <c r="J231" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>319</v>
       </c>
@@ -8408,8 +9865,14 @@
       <c r="H232" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" t="s">
+        <v>655</v>
+      </c>
+      <c r="J232" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -8434,8 +9897,14 @@
       <c r="H233" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" t="s">
+        <v>655</v>
+      </c>
+      <c r="J233" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>322</v>
       </c>
@@ -8460,8 +9929,14 @@
       <c r="H234" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" t="s">
+        <v>655</v>
+      </c>
+      <c r="J234" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>324</v>
       </c>
@@ -8486,8 +9961,14 @@
       <c r="H235" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" t="s">
+        <v>655</v>
+      </c>
+      <c r="J235" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>325</v>
       </c>
@@ -8512,8 +9993,14 @@
       <c r="H236" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" t="s">
+        <v>653</v>
+      </c>
+      <c r="J236" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>326</v>
       </c>
@@ -8538,8 +10025,14 @@
       <c r="H237" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" t="s">
+        <v>653</v>
+      </c>
+      <c r="J237" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>327</v>
       </c>
@@ -8564,8 +10057,14 @@
       <c r="H238" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" t="s">
+        <v>655</v>
+      </c>
+      <c r="J238" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>328</v>
       </c>
@@ -8590,8 +10089,14 @@
       <c r="H239" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" t="s">
+        <v>653</v>
+      </c>
+      <c r="J239" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>329</v>
       </c>
@@ -8616,8 +10121,14 @@
       <c r="H240" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" t="s">
+        <v>653</v>
+      </c>
+      <c r="J240" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>330</v>
       </c>
@@ -8642,8 +10153,14 @@
       <c r="H241" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" t="s">
+        <v>655</v>
+      </c>
+      <c r="J241" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -8668,8 +10185,14 @@
       <c r="H242" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" t="s">
+        <v>653</v>
+      </c>
+      <c r="J242" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>332</v>
       </c>
@@ -8694,8 +10217,14 @@
       <c r="H243" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" t="s">
+        <v>653</v>
+      </c>
+      <c r="J243" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>333</v>
       </c>
@@ -8720,8 +10249,14 @@
       <c r="H244" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" t="s">
+        <v>653</v>
+      </c>
+      <c r="J244" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>334</v>
       </c>
@@ -8746,8 +10281,14 @@
       <c r="H245" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" t="s">
+        <v>656</v>
+      </c>
+      <c r="J245" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>335</v>
       </c>
@@ -8772,8 +10313,14 @@
       <c r="H246" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" t="s">
+        <v>655</v>
+      </c>
+      <c r="J246" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>336</v>
       </c>
@@ -8798,8 +10345,14 @@
       <c r="H247" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" t="s">
+        <v>655</v>
+      </c>
+      <c r="J247" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>338</v>
       </c>
@@ -8824,8 +10377,14 @@
       <c r="H248" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" t="s">
+        <v>655</v>
+      </c>
+      <c r="J248" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>339</v>
       </c>
@@ -8850,8 +10409,14 @@
       <c r="H249" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" t="s">
+        <v>655</v>
+      </c>
+      <c r="J249" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>340</v>
       </c>
@@ -8876,8 +10441,14 @@
       <c r="H250" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250" t="s">
+        <v>655</v>
+      </c>
+      <c r="J250" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>341</v>
       </c>
@@ -8902,8 +10473,14 @@
       <c r="H251" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251" t="s">
+        <v>655</v>
+      </c>
+      <c r="J251" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>342</v>
       </c>
@@ -8928,8 +10505,14 @@
       <c r="H252" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252" t="s">
+        <v>655</v>
+      </c>
+      <c r="J252" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>343</v>
       </c>
@@ -8954,8 +10537,14 @@
       <c r="H253" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253" t="s">
+        <v>655</v>
+      </c>
+      <c r="J253" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>344</v>
       </c>
@@ -8980,8 +10569,14 @@
       <c r="H254" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254" t="s">
+        <v>655</v>
+      </c>
+      <c r="J254" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>345</v>
       </c>
@@ -9006,8 +10601,14 @@
       <c r="H255" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255" t="s">
+        <v>656</v>
+      </c>
+      <c r="J255" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>348</v>
       </c>
@@ -9032,8 +10633,14 @@
       <c r="H256" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256" t="s">
+        <v>653</v>
+      </c>
+      <c r="J256" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>349</v>
       </c>
@@ -9058,8 +10665,14 @@
       <c r="H257" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257" t="s">
+        <v>653</v>
+      </c>
+      <c r="J257" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>350</v>
       </c>
@@ -9084,8 +10697,14 @@
       <c r="H258" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258" t="s">
+        <v>653</v>
+      </c>
+      <c r="J258" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>351</v>
       </c>
@@ -9110,8 +10729,14 @@
       <c r="H259" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259" t="s">
+        <v>653</v>
+      </c>
+      <c r="J259" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>352</v>
       </c>
@@ -9136,8 +10761,14 @@
       <c r="H260" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260" t="s">
+        <v>653</v>
+      </c>
+      <c r="J260" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>353</v>
       </c>
@@ -9162,8 +10793,14 @@
       <c r="H261" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261" t="s">
+        <v>653</v>
+      </c>
+      <c r="J261" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>354</v>
       </c>
@@ -9188,8 +10825,14 @@
       <c r="H262" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262" t="s">
+        <v>657</v>
+      </c>
+      <c r="J262" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>357</v>
       </c>
@@ -9214,8 +10857,14 @@
       <c r="H263" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263" t="s">
+        <v>657</v>
+      </c>
+      <c r="J263" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>359</v>
       </c>
@@ -9240,8 +10889,14 @@
       <c r="H264" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264" t="s">
+        <v>653</v>
+      </c>
+      <c r="J264" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>360</v>
       </c>
@@ -9266,8 +10921,14 @@
       <c r="H265" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265" t="s">
+        <v>653</v>
+      </c>
+      <c r="J265" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>361</v>
       </c>
@@ -9292,8 +10953,14 @@
       <c r="H266" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266" t="s">
+        <v>653</v>
+      </c>
+      <c r="J266" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>362</v>
       </c>
@@ -9318,8 +10985,14 @@
       <c r="H267" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267" t="s">
+        <v>653</v>
+      </c>
+      <c r="J267" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>363</v>
       </c>
@@ -9344,8 +11017,14 @@
       <c r="H268" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268" t="s">
+        <v>653</v>
+      </c>
+      <c r="J268" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>365</v>
       </c>
@@ -9370,8 +11049,14 @@
       <c r="H269" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269" t="s">
+        <v>653</v>
+      </c>
+      <c r="J269" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>367</v>
       </c>
@@ -9396,8 +11081,14 @@
       <c r="H270" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270" t="s">
+        <v>656</v>
+      </c>
+      <c r="J270" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>368</v>
       </c>
@@ -9422,8 +11113,14 @@
       <c r="H271" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271" t="s">
+        <v>656</v>
+      </c>
+      <c r="J271" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>369</v>
       </c>
@@ -9448,8 +11145,14 @@
       <c r="H272" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272" t="s">
+        <v>656</v>
+      </c>
+      <c r="J272" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>370</v>
       </c>
@@ -9474,8 +11177,14 @@
       <c r="H273" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273" t="s">
+        <v>653</v>
+      </c>
+      <c r="J273" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>372</v>
       </c>
@@ -9500,8 +11209,14 @@
       <c r="H274" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274" t="s">
+        <v>653</v>
+      </c>
+      <c r="J274" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>374</v>
       </c>
@@ -9526,8 +11241,14 @@
       <c r="H275" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275" t="s">
+        <v>656</v>
+      </c>
+      <c r="J275" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>375</v>
       </c>
@@ -9552,8 +11273,14 @@
       <c r="H276" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276" t="s">
+        <v>656</v>
+      </c>
+      <c r="J276" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>376</v>
       </c>
@@ -9578,8 +11305,14 @@
       <c r="H277" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277" t="s">
+        <v>653</v>
+      </c>
+      <c r="J277" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>378</v>
       </c>
@@ -9604,8 +11337,14 @@
       <c r="H278" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278" t="s">
+        <v>653</v>
+      </c>
+      <c r="J278" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>380</v>
       </c>
@@ -9630,8 +11369,14 @@
       <c r="H279" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279" t="s">
+        <v>653</v>
+      </c>
+      <c r="J279" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>382</v>
       </c>
@@ -9656,8 +11401,14 @@
       <c r="H280" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280" t="s">
+        <v>656</v>
+      </c>
+      <c r="J280" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>383</v>
       </c>
@@ -9682,8 +11433,14 @@
       <c r="H281" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281" t="s">
+        <v>9</v>
+      </c>
+      <c r="J281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>383</v>
       </c>
@@ -9708,8 +11465,14 @@
       <c r="H282" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282" t="s">
+        <v>9</v>
+      </c>
+      <c r="J282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>383</v>
       </c>
@@ -9734,8 +11497,14 @@
       <c r="H283" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283" t="s">
+        <v>9</v>
+      </c>
+      <c r="J283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>383</v>
       </c>
@@ -9760,8 +11529,14 @@
       <c r="H284" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284" t="s">
+        <v>9</v>
+      </c>
+      <c r="J284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>391</v>
       </c>
@@ -9786,8 +11561,14 @@
       <c r="H285" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285" t="s">
+        <v>653</v>
+      </c>
+      <c r="J285" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>394</v>
       </c>
@@ -9812,8 +11593,14 @@
       <c r="H286" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286" t="s">
+        <v>653</v>
+      </c>
+      <c r="J286" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>397</v>
       </c>
@@ -9838,8 +11625,14 @@
       <c r="H287" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287" t="s">
+        <v>653</v>
+      </c>
+      <c r="J287" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>400</v>
       </c>
@@ -9864,8 +11657,14 @@
       <c r="H288" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288" t="s">
+        <v>653</v>
+      </c>
+      <c r="J288" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>403</v>
       </c>
@@ -9890,8 +11689,14 @@
       <c r="H289" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289" t="s">
+        <v>653</v>
+      </c>
+      <c r="J289" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>406</v>
       </c>
@@ -9916,8 +11721,14 @@
       <c r="H290" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290" t="s">
+        <v>653</v>
+      </c>
+      <c r="J290" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>409</v>
       </c>
@@ -9942,8 +11753,14 @@
       <c r="H291" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291" t="s">
+        <v>653</v>
+      </c>
+      <c r="J291" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>409</v>
       </c>
@@ -9968,8 +11785,14 @@
       <c r="H292" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292" t="s">
+        <v>653</v>
+      </c>
+      <c r="J292" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>409</v>
       </c>
@@ -9994,8 +11817,14 @@
       <c r="H293" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293" t="s">
+        <v>653</v>
+      </c>
+      <c r="J293" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>409</v>
       </c>
@@ -10020,8 +11849,14 @@
       <c r="H294" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294" t="s">
+        <v>653</v>
+      </c>
+      <c r="J294" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>409</v>
       </c>
@@ -10046,8 +11881,14 @@
       <c r="H295" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295" t="s">
+        <v>653</v>
+      </c>
+      <c r="J295" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>409</v>
       </c>
@@ -10072,8 +11913,14 @@
       <c r="H296" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296" t="s">
+        <v>653</v>
+      </c>
+      <c r="J296" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>409</v>
       </c>
@@ -10098,8 +11945,14 @@
       <c r="H297" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297" t="s">
+        <v>653</v>
+      </c>
+      <c r="J297" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>409</v>
       </c>
@@ -10124,8 +11977,14 @@
       <c r="H298" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298" t="s">
+        <v>653</v>
+      </c>
+      <c r="J298" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>409</v>
       </c>
@@ -10150,8 +12009,14 @@
       <c r="H299" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299" t="s">
+        <v>653</v>
+      </c>
+      <c r="J299" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>409</v>
       </c>
@@ -10176,8 +12041,14 @@
       <c r="H300" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300" t="s">
+        <v>653</v>
+      </c>
+      <c r="J300" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -10202,8 +12073,14 @@
       <c r="H301" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301" t="s">
+        <v>653</v>
+      </c>
+      <c r="J301" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>409</v>
       </c>
@@ -10228,8 +12105,14 @@
       <c r="H302" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302" t="s">
+        <v>653</v>
+      </c>
+      <c r="J302" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>409</v>
       </c>
@@ -10254,8 +12137,14 @@
       <c r="H303" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303" t="s">
+        <v>653</v>
+      </c>
+      <c r="J303" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>430</v>
       </c>
@@ -10280,8 +12169,14 @@
       <c r="H304" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304" t="s">
+        <v>656</v>
+      </c>
+      <c r="J304" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>431</v>
       </c>
@@ -10306,8 +12201,14 @@
       <c r="H305" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305" t="s">
+        <v>653</v>
+      </c>
+      <c r="J305" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>432</v>
       </c>
@@ -10332,8 +12233,14 @@
       <c r="H306" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306" t="s">
+        <v>653</v>
+      </c>
+      <c r="J306" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>432</v>
       </c>
@@ -10358,8 +12265,14 @@
       <c r="H307" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307" t="s">
+        <v>653</v>
+      </c>
+      <c r="J307" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>432</v>
       </c>
@@ -10384,8 +12297,14 @@
       <c r="H308" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308" t="s">
+        <v>653</v>
+      </c>
+      <c r="J308" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>432</v>
       </c>
@@ -10410,8 +12329,14 @@
       <c r="H309" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309" t="s">
+        <v>653</v>
+      </c>
+      <c r="J309" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>432</v>
       </c>
@@ -10436,8 +12361,14 @@
       <c r="H310" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310" t="s">
+        <v>653</v>
+      </c>
+      <c r="J310" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>432</v>
       </c>
@@ -10462,8 +12393,14 @@
       <c r="H311" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311" t="s">
+        <v>653</v>
+      </c>
+      <c r="J311" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>432</v>
       </c>
@@ -10488,8 +12425,14 @@
       <c r="H312" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312" t="s">
+        <v>653</v>
+      </c>
+      <c r="J312" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>432</v>
       </c>
@@ -10514,8 +12457,14 @@
       <c r="H313" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313" t="s">
+        <v>653</v>
+      </c>
+      <c r="J313" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>432</v>
       </c>
@@ -10540,8 +12489,14 @@
       <c r="H314" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314" t="s">
+        <v>653</v>
+      </c>
+      <c r="J314" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>432</v>
       </c>
@@ -10566,8 +12521,14 @@
       <c r="H315" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315" t="s">
+        <v>653</v>
+      </c>
+      <c r="J315" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>432</v>
       </c>
@@ -10592,8 +12553,14 @@
       <c r="H316" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316" t="s">
+        <v>653</v>
+      </c>
+      <c r="J316" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>432</v>
       </c>
@@ -10618,8 +12585,14 @@
       <c r="H317" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317" t="s">
+        <v>653</v>
+      </c>
+      <c r="J317" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>432</v>
       </c>
@@ -10644,8 +12617,14 @@
       <c r="H318" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318" t="s">
+        <v>653</v>
+      </c>
+      <c r="J318" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>432</v>
       </c>
@@ -10670,8 +12649,14 @@
       <c r="H319" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319" t="s">
+        <v>653</v>
+      </c>
+      <c r="J319" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>432</v>
       </c>
@@ -10696,8 +12681,14 @@
       <c r="H320" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320" t="s">
+        <v>653</v>
+      </c>
+      <c r="J320" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>432</v>
       </c>
@@ -10722,8 +12713,14 @@
       <c r="H321" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321" t="s">
+        <v>653</v>
+      </c>
+      <c r="J321" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>432</v>
       </c>
@@ -10748,8 +12745,14 @@
       <c r="H322" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322" t="s">
+        <v>653</v>
+      </c>
+      <c r="J322" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>432</v>
       </c>
@@ -10774,8 +12777,14 @@
       <c r="H323" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323" t="s">
+        <v>653</v>
+      </c>
+      <c r="J323" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>432</v>
       </c>
@@ -10800,8 +12809,14 @@
       <c r="H324" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324" t="s">
+        <v>653</v>
+      </c>
+      <c r="J324" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>432</v>
       </c>
@@ -10826,8 +12841,14 @@
       <c r="H325" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325" t="s">
+        <v>653</v>
+      </c>
+      <c r="J325" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>432</v>
       </c>
@@ -10852,8 +12873,14 @@
       <c r="H326" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326" t="s">
+        <v>653</v>
+      </c>
+      <c r="J326" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>432</v>
       </c>
@@ -10878,8 +12905,14 @@
       <c r="H327" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327" t="s">
+        <v>653</v>
+      </c>
+      <c r="J327" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>466</v>
       </c>
@@ -10904,8 +12937,14 @@
       <c r="H328" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328" t="s">
+        <v>656</v>
+      </c>
+      <c r="J328" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>468</v>
       </c>
@@ -10930,8 +12969,14 @@
       <c r="H329" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329" t="s">
+        <v>656</v>
+      </c>
+      <c r="J329" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>471</v>
       </c>
@@ -10956,8 +13001,14 @@
       <c r="H330" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330" t="s">
+        <v>652</v>
+      </c>
+      <c r="J330" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>473</v>
       </c>
@@ -10982,8 +13033,14 @@
       <c r="H331" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331" t="s">
+        <v>652</v>
+      </c>
+      <c r="J331" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>475</v>
       </c>
@@ -11008,8 +13065,14 @@
       <c r="H332" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332" t="s">
+        <v>656</v>
+      </c>
+      <c r="J332" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>476</v>
       </c>
@@ -11034,8 +13097,14 @@
       <c r="H333" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333" t="s">
+        <v>656</v>
+      </c>
+      <c r="J333" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>477</v>
       </c>
@@ -11060,8 +13129,14 @@
       <c r="H334" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334" t="s">
+        <v>656</v>
+      </c>
+      <c r="J334" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>479</v>
       </c>
@@ -11086,8 +13161,14 @@
       <c r="H335" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335" t="s">
+        <v>656</v>
+      </c>
+      <c r="J335" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>479</v>
       </c>
@@ -11112,8 +13193,14 @@
       <c r="H336" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336" t="s">
+        <v>656</v>
+      </c>
+      <c r="J336" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>482</v>
       </c>
@@ -11138,8 +13225,14 @@
       <c r="H337" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337" t="s">
+        <v>653</v>
+      </c>
+      <c r="J337" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>484</v>
       </c>
@@ -11164,8 +13257,14 @@
       <c r="H338" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338" t="s">
+        <v>656</v>
+      </c>
+      <c r="J338" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>484</v>
       </c>
@@ -11190,8 +13289,14 @@
       <c r="H339" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339" t="s">
+        <v>656</v>
+      </c>
+      <c r="J339" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>487</v>
       </c>
@@ -11216,8 +13321,14 @@
       <c r="H340" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340" t="s">
+        <v>653</v>
+      </c>
+      <c r="J340" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>489</v>
       </c>
@@ -11242,8 +13353,14 @@
       <c r="H341" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341" t="s">
+        <v>653</v>
+      </c>
+      <c r="J341" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>491</v>
       </c>
@@ -11268,8 +13385,14 @@
       <c r="H342" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342" t="s">
+        <v>653</v>
+      </c>
+      <c r="J342" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>491</v>
       </c>
@@ -11294,8 +13417,14 @@
       <c r="H343" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343" t="s">
+        <v>653</v>
+      </c>
+      <c r="J343" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>493</v>
       </c>
@@ -11320,8 +13449,14 @@
       <c r="H344" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344" t="s">
+        <v>653</v>
+      </c>
+      <c r="J344" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>493</v>
       </c>
@@ -11346,8 +13481,14 @@
       <c r="H345" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345" t="s">
+        <v>653</v>
+      </c>
+      <c r="J345" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>495</v>
       </c>
@@ -11372,8 +13513,14 @@
       <c r="H346" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346" t="s">
+        <v>653</v>
+      </c>
+      <c r="J346" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>495</v>
       </c>
@@ -11398,8 +13545,14 @@
       <c r="H347" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347" t="s">
+        <v>653</v>
+      </c>
+      <c r="J347" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>497</v>
       </c>
@@ -11424,8 +13577,14 @@
       <c r="H348" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348" t="s">
+        <v>653</v>
+      </c>
+      <c r="J348" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>497</v>
       </c>
@@ -11450,8 +13609,14 @@
       <c r="H349" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349" t="s">
+        <v>653</v>
+      </c>
+      <c r="J349" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>499</v>
       </c>
@@ -11476,8 +13641,14 @@
       <c r="H350" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350" t="s">
+        <v>653</v>
+      </c>
+      <c r="J350" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>499</v>
       </c>
@@ -11502,8 +13673,14 @@
       <c r="H351" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351" t="s">
+        <v>653</v>
+      </c>
+      <c r="J351" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>501</v>
       </c>
@@ -11528,8 +13705,14 @@
       <c r="H352" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352" t="s">
+        <v>653</v>
+      </c>
+      <c r="J352" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>501</v>
       </c>
@@ -11553,6 +13736,12 @@
       </c>
       <c r="H353" s="3" t="s">
         <v>650</v>
+      </c>
+      <c r="I353" t="s">
+        <v>653</v>
+      </c>
+      <c r="J353" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
